--- a/Dataset_raw/Copy of Rainforest Flow data collection years 2009-2024_Done.xlsx
+++ b/Dataset_raw/Copy of Rainforest Flow data collection years 2009-2024_Done.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD Thesis\Dataset_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PhD Thesis\WASH\Dataset_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7A1A50-D491-4723-BBE4-39B9F447AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F073B42-8FD8-4DF0-9D4C-04857CDEE914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
   <si>
     <t>Years data collected</t>
   </si>
@@ -55,11 +55,431 @@
   </si>
   <si>
     <t>Tayakome</t>
+  </si>
+  <si>
+    <t>Yomybato</t>
+  </si>
+  <si>
+    <t>Louis Terry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow cell: data that needs to be analyzed includes incidence of diarrhea, parasites, anemia; </t>
+  </si>
+  <si>
+    <t>Blue cell: data analyzed includes incidence of diarrhea, parasites, anemia; data that needs to analyzed includes incidence of skin fungus and colds/flus</t>
+  </si>
+  <si>
+    <t>Pop. 120 (Shawi tribe) Intervention: 2022-2024 (Consecutive years) Sanitation in village schools.</t>
+  </si>
+  <si>
+    <t>Pop. 170 (Matsigenka, Huachiperi Quechua tribe) Intervention: 2004- 2023 (Not consecutive years) 70% of the population has a home bathroom and at the schools.</t>
+  </si>
+  <si>
+    <t>Pop. 400 (Matsigenka tribe) Intervention: 2012-2023 (Not consecutive years) Sanitation only at the village schools.</t>
+  </si>
+  <si>
+    <t>Date_of_visit</t>
+  </si>
+  <si>
+    <t>Age_years_or_months</t>
+  </si>
+  <si>
+    <t>Positive_for_ascaris_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_blastocystis_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_giardia_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_trichuris_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_uncinaria_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_strongyloides_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_enterobius_present_feces_sample</t>
+  </si>
+  <si>
+    <t>Positive_for_hymenolepis_nana_feces_sample</t>
+  </si>
+  <si>
+    <t>Weight_kg</t>
+  </si>
+  <si>
+    <t>Height_cm</t>
+  </si>
+  <si>
+    <t>Weight_for_age_z_score</t>
+  </si>
+  <si>
+    <t>Weight_for_age_z_score_description</t>
+  </si>
+  <si>
+    <t>Height_for_age_z_score</t>
+  </si>
+  <si>
+    <t>Height_for_age_z_score_description</t>
+  </si>
+  <si>
+    <t>BMI_for_age_z_score</t>
+  </si>
+  <si>
+    <t>BMI_for_age_z_score_description</t>
+  </si>
+  <si>
+    <t>IMC_form</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Anemia_classified_age_sex</t>
+  </si>
+  <si>
+    <t>X (parasite, nutrition, Anemia)</t>
+  </si>
+  <si>
+    <t>X (parasite, nutrition, Anemia) +Visit2 (parasite)</t>
+  </si>
+  <si>
+    <t>Hto_EQ(hemocue)%</t>
+  </si>
+  <si>
+    <t>Hto(capilar)%</t>
+  </si>
+  <si>
+    <t>Received_anti_parasite_treatment</t>
+  </si>
+  <si>
+    <t>X (parasite+anti_parasite_treat, nutrition, anemia+Hto)</t>
+  </si>
+  <si>
+    <t>Date_of_intervention</t>
+  </si>
+  <si>
+    <t>kinship</t>
+  </si>
+  <si>
+    <t>Has_sink</t>
+  </si>
+  <si>
+    <t>Sink_works</t>
+  </si>
+  <si>
+    <t>Safe_sink_water</t>
+  </si>
+  <si>
+    <t>Sink_without_water_recently</t>
+  </si>
+  <si>
+    <t>If yes_for_how_long_days</t>
+  </si>
+  <si>
+    <t>For_how_long</t>
+  </si>
+  <si>
+    <t>No_sink_spring</t>
+  </si>
+  <si>
+    <t>No_sink_brook</t>
+  </si>
+  <si>
+    <t>No_sink_river</t>
+  </si>
+  <si>
+    <t>No_sink_other</t>
+  </si>
+  <si>
+    <t>Drinks_water_outside_home_without_boiling</t>
+  </si>
+  <si>
+    <t>Drinks_water_outside_home_with_boils</t>
+  </si>
+  <si>
+    <t>Drinks_water_outside_home_others</t>
+  </si>
+  <si>
+    <t>Drinks_water_outside_home_boiled_without_boiled</t>
+  </si>
+  <si>
+    <t>Where_you_drink_water_when_thirsty</t>
+  </si>
+  <si>
+    <t>Where_else_water_used</t>
+  </si>
+  <si>
+    <t>When_you_last_drink_spring</t>
+  </si>
+  <si>
+    <t>When_you_last_drink_stream</t>
+  </si>
+  <si>
+    <t>When_you_last_drink_river</t>
+  </si>
+  <si>
+    <t>Days_since_you_drink_water</t>
+  </si>
+  <si>
+    <t>Do_you_drink_chapo</t>
+  </si>
+  <si>
+    <t>Do_you_drink_lemonade</t>
+  </si>
+  <si>
+    <t>Do_you_drink_masato</t>
+  </si>
+  <si>
+    <t>Do_you_drink_others</t>
+  </si>
+  <si>
+    <t>location_of_water_used_to_prepare_masato</t>
+  </si>
+  <si>
+    <t>Last_time_drank_masato_days</t>
+  </si>
+  <si>
+    <t>How_long_drank_masato_days</t>
+  </si>
+  <si>
+    <t>Did_you_go_with_children?</t>
+  </si>
+  <si>
+    <t>Where_do_you_defecate</t>
+  </si>
+  <si>
+    <t>Do_you_wash_your_hands_afterwards?</t>
+  </si>
+  <si>
+    <t>handwash_with_soap</t>
+  </si>
+  <si>
+    <t>handwash_with_others</t>
+  </si>
+  <si>
+    <t>Defecates_field</t>
+  </si>
+  <si>
+    <t>Buries_feces</t>
+  </si>
+  <si>
+    <t>Frequency_washes_hands</t>
+  </si>
+  <si>
+    <t>Location_of_wash_hands</t>
+  </si>
+  <si>
+    <t>Wash_hands_soap</t>
+  </si>
+  <si>
+    <t>Wash_hands_other</t>
+  </si>
+  <si>
+    <t>hand_washing_moments</t>
+  </si>
+  <si>
+    <t>Play_with_pets</t>
+  </si>
+  <si>
+    <t>What_pet</t>
+  </si>
+  <si>
+    <t>After_plays_with_pets_washes_hands</t>
+  </si>
+  <si>
+    <t>There_are_rats</t>
+  </si>
+  <si>
+    <t>Last_time_ate_picuro_days</t>
+  </si>
+  <si>
+    <t>Last_time_ate_roncoso_days</t>
+  </si>
+  <si>
+    <t>How_did_you_hunt</t>
+  </si>
+  <si>
+    <t>Has_dogs</t>
+  </si>
+  <si>
+    <t>Has_cats</t>
+  </si>
+  <si>
+    <t>Has_animal_others</t>
+  </si>
+  <si>
+    <t>Raises_animals</t>
+  </si>
+  <si>
+    <t>frequency_ate_yesterday</t>
+  </si>
+  <si>
+    <t>what_ate</t>
+  </si>
+  <si>
+    <t>ate_other</t>
+  </si>
+  <si>
+    <t>Last_time_you_ate_fish</t>
+  </si>
+  <si>
+    <t>What fish</t>
+  </si>
+  <si>
+    <t>How_did_you_get_fished</t>
+  </si>
+  <si>
+    <t>Last_time_you_ate_wild_meat</t>
+  </si>
+  <si>
+    <t>What_meat</t>
+  </si>
+  <si>
+    <t>How_did_you_get_meat</t>
+  </si>
+  <si>
+    <t>Last_time_you_had_diarrhea_days</t>
+  </si>
+  <si>
+    <t>How_long_diarrhea_last_days</t>
+  </si>
+  <si>
+    <t>Went_hospital_diarrhea</t>
+  </si>
+  <si>
+    <t>Number_children_diarrhea</t>
+  </si>
+  <si>
+    <t>Went_health_post_children_diarrhea</t>
+  </si>
+  <si>
+    <t>Number_adults_diarrhea</t>
+  </si>
+  <si>
+    <t>Went_health_post_adult_diarrhea</t>
+  </si>
+  <si>
+    <t>Last_time_you_had_cough_days</t>
+  </si>
+  <si>
+    <t>How_long_cough_last_days</t>
+  </si>
+  <si>
+    <t>Went_health_post_cough</t>
+  </si>
+  <si>
+    <t>Number_children_cough</t>
+  </si>
+  <si>
+    <t>Went_health_post_children_cough</t>
+  </si>
+  <si>
+    <t>Number_adults_cough</t>
+  </si>
+  <si>
+    <t>Went_health_post_adult_cough</t>
+  </si>
+  <si>
+    <t>Had_covid</t>
+  </si>
+  <si>
+    <t>Confirmed_covid</t>
+  </si>
+  <si>
+    <t>Date_anti_parasite_treatment</t>
+  </si>
+  <si>
+    <t>X (water storage, drinking water source, drinking water collection, other drinks, defecate location, defecate management, handwashing practice, pets, eating, diarrhea, cough, healthpost visit, covid, parasite_treat)</t>
+  </si>
+  <si>
+    <t>Had_diarrhea</t>
+  </si>
+  <si>
+    <t>had_diarrhea_days</t>
+  </si>
+  <si>
+    <t>had_diarrhea_bloody_mucus</t>
+  </si>
+  <si>
+    <t>Went_health_post_bloody_mucus</t>
+  </si>
+  <si>
+    <t>episode_respiratory_illness</t>
+  </si>
+  <si>
+    <t>How_long_respiratory_illness_last_days</t>
+  </si>
+  <si>
+    <t>Went_health_post_respiratory_illness</t>
+  </si>
+  <si>
+    <t>Date_treatment</t>
+  </si>
+  <si>
+    <t>Drinks_untreated_water</t>
+  </si>
+  <si>
+    <t>Drinks_boiled_water</t>
+  </si>
+  <si>
+    <t>X (Diarrhea, respiratory illness)</t>
+  </si>
+  <si>
+    <t>Community_name</t>
+  </si>
+  <si>
+    <t>Family_name</t>
+  </si>
+  <si>
+    <t>Participant_code</t>
+  </si>
+  <si>
+    <t>Full_name</t>
+  </si>
+  <si>
+    <t>Date_of_birth</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Y2012</t>
+  </si>
+  <si>
+    <t>Y2014</t>
+  </si>
+  <si>
+    <t>Y2015</t>
+  </si>
+  <si>
+    <t>Y2019</t>
+  </si>
+  <si>
+    <t>Y2021</t>
+  </si>
+  <si>
+    <t>Y2022</t>
+  </si>
+  <si>
+    <t>Y2023</t>
+  </si>
+  <si>
+    <t>X (parasite, nutrition, Anemia, diarrhea)</t>
+  </si>
+  <si>
+    <t>X (Diarrhea, respiratory illness, drinks treatment + healthpost visit,  visit4)</t>
+  </si>
+  <si>
+    <t>X (parasite, nutrition, Anemia, diarrhea, treat, healthpost visit, )</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="10"/>
         <color indexed="14"/>
         <rFont val="Helvetica"/>
       </rPr>
@@ -67,116 +487,122 @@
     </r>
   </si>
   <si>
-    <t>Yomybato</t>
-  </si>
-  <si>
-    <t>Louis Terry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow cell: data that needs to be analyzed includes incidence of diarrhea, parasites, anemia; </t>
-  </si>
-  <si>
-    <t>Blue cell: data analyzed includes incidence of diarrhea, parasites, anemia; data that needs to analyzed includes incidence of skin fungus and colds/flus</t>
-  </si>
-  <si>
-    <t>Pop. 120 (Shawi tribe) Intervention: 2022-2024 (Consecutive years) Sanitation in village schools.</t>
-  </si>
-  <si>
-    <t>Pop. 170 (Matsigenka, Huachiperi Quechua tribe) Intervention: 2004- 2023 (Not consecutive years) 70% of the population has a home bathroom and at the schools.</t>
-  </si>
-  <si>
-    <t>Pop. 400 (Matsigenka tribe) Intervention: 2012-2023 (Not consecutive years) Sanitation only at the village schools.</t>
-  </si>
-  <si>
-    <t>Date_of_visit</t>
-  </si>
-  <si>
-    <t>Age_years_or_months</t>
-  </si>
-  <si>
-    <t>Positive_for_ascaris_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_blastocystis_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_giardia_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_trichuris_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_uncinaria_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_strongyloides_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_enterobius_present_feces_sample</t>
-  </si>
-  <si>
-    <t>Positive_for_hymenolepis_nana_feces_sample</t>
-  </si>
-  <si>
-    <t>Weight_kg</t>
-  </si>
-  <si>
-    <t>Height_cm</t>
-  </si>
-  <si>
-    <t>Weight_for_age_z_score</t>
-  </si>
-  <si>
-    <t>Weight_for_age_z_score_description</t>
-  </si>
-  <si>
-    <t>Height_for_age_z_score</t>
-  </si>
-  <si>
-    <t>Height_for_age_z_score_description</t>
-  </si>
-  <si>
-    <t>BMI_for_age_z_score</t>
-  </si>
-  <si>
-    <t>BMI_for_age_z_score_description</t>
-  </si>
-  <si>
-    <t>IMC_form</t>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-  </si>
-  <si>
-    <t>Anemia_classified_age_sex</t>
-  </si>
-  <si>
-    <t>X (parasite, nutrition, Anemia)</t>
-  </si>
-  <si>
-    <t>X (parasite, nutrition, Anemia) +Visit2 (parasite)</t>
-  </si>
-  <si>
-    <t>Hto_EQ(hemocue)%</t>
-  </si>
-  <si>
-    <t>Hto(capilar)%</t>
-  </si>
-  <si>
-    <t>Received_anti_parasite_treatment</t>
-  </si>
-  <si>
-    <t>X (parasite+anti_parasite_treat, nutrition, anemia+Hto)</t>
-  </si>
-  <si>
-    <t>Date_of_intervention</t>
+    <t>X (parasite, water storage, drinking water source, drinking water collection, other drinks, defecate location, defecate management, handwashing practice, pets, eating, diarrhea, cough, healthpost visit, covid, treat)</t>
+  </si>
+  <si>
+    <t>HTO%</t>
+  </si>
+  <si>
+    <t>Do_you_drink_soda</t>
+  </si>
+  <si>
+    <t>When_episode_respiratory_illness</t>
+  </si>
+  <si>
+    <t>observed_clean_water_sink</t>
+  </si>
+  <si>
+    <t>observed_clean_bathroom_toilet</t>
+  </si>
+  <si>
+    <t>presence_of_rodents</t>
+  </si>
+  <si>
+    <t>Observed_washing_hands</t>
+  </si>
+  <si>
+    <t>When_episode_diarrhea</t>
+  </si>
+  <si>
+    <t>X (Diarrhea, respiratory illness, observed (miss), rodents presence, anti-parasite)</t>
+  </si>
+  <si>
+    <t>HOME_CODE</t>
+  </si>
+  <si>
+    <t>Hto(Manual)</t>
+  </si>
+  <si>
+    <t>educational_level_years</t>
+  </si>
+  <si>
+    <t>episodio_Diarrhea_ult3m_2020</t>
+  </si>
+  <si>
+    <t>Had_diarrhea_last3months</t>
+  </si>
+  <si>
+    <t>Freq_episode_Diarrhea2020</t>
+  </si>
+  <si>
+    <t>fishing_father</t>
+  </si>
+  <si>
+    <t>Cultivation_father</t>
+  </si>
+  <si>
+    <t>wash_river_father</t>
+  </si>
+  <si>
+    <t>collect_from_jungle_father</t>
+  </si>
+  <si>
+    <t>raise/feed_animals_father</t>
+  </si>
+  <si>
+    <t>construction_father</t>
+  </si>
+  <si>
+    <t>kitchen_father</t>
+  </si>
+  <si>
+    <t>Other_father</t>
+  </si>
+  <si>
+    <t>Which_other_father</t>
+  </si>
+  <si>
+    <t>hunt_father</t>
+  </si>
+  <si>
+    <t>hunt_mother</t>
+  </si>
+  <si>
+    <t>fishing_mother</t>
+  </si>
+  <si>
+    <t>Cultivation_mother</t>
+  </si>
+  <si>
+    <t>wash_river_mother</t>
+  </si>
+  <si>
+    <t>collect_from_jungle_mother</t>
+  </si>
+  <si>
+    <t>raise/feed_animals_mother</t>
+  </si>
+  <si>
+    <t>construction_mother</t>
+  </si>
+  <si>
+    <t>kitchen_mother</t>
+  </si>
+  <si>
+    <t>Other_mother</t>
+  </si>
+  <si>
+    <t>Which_other_mother</t>
+  </si>
+  <si>
+    <t>X (parasite, nutrition, Anemia, water storage, drinking water source, drinking water collection, other drinks, defecate location, defecate management, handwashing practice, pets, eating, diarrhea, cough, healthpost visit, covid, treat)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -187,11 +613,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="14"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <b/>
@@ -208,6 +629,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="6">
@@ -301,14 +735,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -317,23 +748,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,567 +1922,694 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="5.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="5.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="17" customWidth="1"/>
+    <col min="14" max="16" width="5.109375" style="17" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="28" style="17" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" style="17" customWidth="1"/>
+    <col min="22" max="22" width="5.109375" style="17" customWidth="1"/>
     <col min="23" max="23" width="52" style="1" customWidth="1"/>
-    <col min="24" max="26" width="16.42578125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="16.42578125" style="1"/>
+    <col min="24" max="26" width="16.44140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="13">
         <v>2004</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="13">
         <v>2005</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="13">
         <v>2006</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="13">
         <v>2007</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="13">
         <v>2008</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="13">
         <v>2009</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="13">
         <v>2010</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="13">
         <v>2011</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="13">
         <v>2012</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="13">
         <v>2013</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="13">
         <v>2014</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="13">
         <v>2015</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="13">
         <v>2016</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="13">
         <v>2017</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="13">
         <v>2018</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="13">
         <v>2019</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="13">
         <v>2020</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="13">
         <v>2021</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="13">
         <v>2022</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="13">
         <v>2023</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="13">
         <v>2024</v>
       </c>
       <c r="W1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" ht="38.25">
+    <row r="2" spans="1:25" customFormat="1" ht="105.6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="13"/>
       <c r="W2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" ht="38.25">
+    <row r="3" spans="1:25" customFormat="1" ht="145.19999999999999">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="V3" s="13"/>
       <c r="W3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" customFormat="1" ht="54">
-      <c r="A4" t="s">
+    <row r="4" spans="1:25" s="12" customFormat="1" ht="105.6">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="12" customFormat="1" ht="105.6">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" customFormat="1" ht="63.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" t="s">
-        <v>14</v>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="14"/>
+      <c r="W5" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:25" customFormat="1" ht="59.1" customHeight="1">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" customFormat="1" ht="26.7" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" t="s">
         <v>9</v>
       </c>
-      <c r="T6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W6" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" customFormat="1" ht="26.65" customHeight="1">
-      <c r="W7" t="s">
+    <row r="8" spans="1:25" customFormat="1" ht="38.700000000000003" customHeight="1">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" customFormat="1" ht="38.65" customHeight="1">
-      <c r="W8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
     </row>
     <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2036,94 +2618,545 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B17D2E-9981-408E-97E4-DA4469D82FDD}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:CC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="105">
+    <row r="1" spans="1:81" ht="41.4">
       <c r="A1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="96.6">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="V2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" ht="45">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:81" ht="96.6">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BY3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" ht="82.8">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" ht="82.8">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" ht="55.2">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" ht="69">
+      <c r="A7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" ht="69">
+      <c r="A8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" ht="55.2">
+      <c r="A9" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" ht="69">
+      <c r="A10" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
